--- a/2des/03-bcd/aula08/vps01.xlsx
+++ b/2des/03-bcd/aula08/vps01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\03-bcd\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6636796-89C0-4B69-8BB4-39E44DE9FBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178D396-D89A-4E57-9537-98348C0D4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282E018F-2710-45AA-8835-F9AF56A7B63E}"/>
   </bookViews>
@@ -669,9 +669,6 @@
     <t>telefones</t>
   </si>
   <si>
-    <t>id_escaionamento</t>
-  </si>
-  <si>
     <t>placa</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
   </si>
   <si>
     <t>valor_estacionamento</t>
+  </si>
+  <si>
+    <t>id_estacionamento</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,40 +1093,40 @@
         <v>213</v>
       </c>
       <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="G1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>221</v>
       </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>222</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>223</v>
-      </c>
-      <c r="P1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
